--- a/biology/Médecine/Lupome/Lupome.xlsx
+++ b/biology/Médecine/Lupome/Lupome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lupome, ou tubercule lupique, est une lésion de la peau ; c'est la lésion élémentaire caractéristique du lupus tuberculeux. Il se présente sous forme de petites masses solides arrondies atteignant tout au plus la taille d'un pois, jaunes et translucides à la vitropression, enchâssées dans le derme, évoluant lentement et formant des placards[1].
-Le placard lupique, formé par l'agglomération de lupomes, évolue par poussées successives au cours desquelles il s'ulcère, cicatrise, puis s'infiltre de nouveau. Des réactions épidermiques déterminent son polymorphisme : la sclérose cicatricielle prédomine dans certaines formes qui tendent à se stabiliser ; le lupus vorax, au contraire, creuse en surface et en profondeur et détruit tout relief normal réalisant d'horribles mutilations[2].
-Le lupome peut, rarement, être l'expression initiale d'une véritable tuberculose pulmonaire[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lupome, ou tubercule lupique, est une lésion de la peau ; c'est la lésion élémentaire caractéristique du lupus tuberculeux. Il se présente sous forme de petites masses solides arrondies atteignant tout au plus la taille d'un pois, jaunes et translucides à la vitropression, enchâssées dans le derme, évoluant lentement et formant des placards.
+Le placard lupique, formé par l'agglomération de lupomes, évolue par poussées successives au cours desquelles il s'ulcère, cicatrise, puis s'infiltre de nouveau. Des réactions épidermiques déterminent son polymorphisme : la sclérose cicatricielle prédomine dans certaines formes qui tendent à se stabiliser ; le lupus vorax, au contraire, creuse en surface et en profondeur et détruit tout relief normal réalisant d'horribles mutilations.
+Le lupome peut, rarement, être l'expression initiale d'une véritable tuberculose pulmonaire.
 </t>
         </is>
       </c>
